--- a/media/test.xlsx
+++ b/media/test.xlsx
@@ -409,7 +409,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28/05/2020 16:04:54</t>
+          <t>28/05/2020 20:43:43</t>
         </is>
       </c>
     </row>

--- a/media/test.xlsx
+++ b/media/test.xlsx
@@ -409,7 +409,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28/05/2020 20:43:43</t>
+          <t>28/05/2020 20:56:35</t>
         </is>
       </c>
     </row>
